--- a/wiringPi/InfraredDataWorksheet.xlsx
+++ b/wiringPi/InfraredDataWorksheet.xlsx
@@ -15611,7 +15611,7 @@
   <dimension ref="A1:O583"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
